--- a/InputData/io-model/DLIM/Domestic Leontief Inverse Matrix.xlsx
+++ b/InputData/io-model/DLIM/Domestic Leontief Inverse Matrix.xlsx
@@ -11375,7 +11375,7 @@
         <v>0.8849007049436146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5618822591055348</v>
+        <v>0.2883263863596509</v>
       </c>
       <c r="D2">
         <f>(B2-C2)/B2</f>
@@ -11392,7 +11392,7 @@
         <v>0.7847279087044589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004670986355195104</v>
+        <v>0.7214736462234707</v>
       </c>
       <c r="D3">
         <f>(B3-C3)/B3</f>
@@ -11409,7 +11409,7 @@
         <v>0.9834107012535428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7148570013618919</v>
+        <v>0.5390408112743797</v>
       </c>
       <c r="D4">
         <f>(B4-C4)/B4</f>
@@ -11426,7 +11426,7 @@
         <v>0.988554926999372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4330153651557042</v>
+        <v>0.2551466653460389</v>
       </c>
       <c r="D5">
         <f>(B5-C5)/B5</f>
@@ -11443,7 +11443,7 @@
         <v>0.7960210115775173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5507423335489527</v>
+        <v>0.1629806062963671</v>
       </c>
       <c r="D6">
         <f>(B6-C6)/B6</f>
@@ -11460,7 +11460,7 @@
         <v>0.63332018937412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1263299403089371</v>
+        <v>0.00218285291877274</v>
       </c>
       <c r="D7">
         <f>(B7-C7)/B7</f>
@@ -11477,7 +11477,7 @@
         <v>0.8929801452930859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.538470606212753</v>
+        <v>0.1549130199603967</v>
       </c>
       <c r="D8">
         <f>(B8-C8)/B8</f>
@@ -11494,7 +11494,7 @@
         <v>0.9189947383674651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4760751422109072</v>
+        <v>0.07328113654965122</v>
       </c>
       <c r="D9">
         <f>(B9-C9)/B9</f>
@@ -11511,7 +11511,7 @@
         <v>0.8843185595751853</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4626672082667079</v>
+        <v>0.2925471910957358</v>
       </c>
       <c r="D10">
         <f>(B10-C10)/B10</f>
@@ -11528,7 +11528,7 @@
         <v>0.7602182332976387</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1889856549339601</v>
+        <v>0.02482950365147664</v>
       </c>
       <c r="D11">
         <f>(B11-C11)/B11</f>
@@ -11545,7 +11545,7 @@
         <v>0.9168615705777654</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3625588928150766</v>
+        <v>0.07562380854834035</v>
       </c>
       <c r="D12">
         <f>(B12-C12)/B12</f>
@@ -11562,7 +11562,7 @@
         <v>0.9159921096210565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7834298859312432</v>
+        <v>0.5994515917325207</v>
       </c>
       <c r="D13">
         <f>(B13-C13)/B13</f>
@@ -11579,7 +11579,7 @@
         <v>0.790724717486102</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2755974393742072</v>
+        <v>0.049038861786753</v>
       </c>
       <c r="D14">
         <f>(B14-C14)/B14</f>
@@ -11596,7 +11596,7 @@
         <v>0.8887742333811445</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3913186168665851</v>
+        <v>0.06552336369281705</v>
       </c>
       <c r="D15">
         <f>(B15-C15)/B15</f>
@@ -11613,7 +11613,7 @@
         <v>0.6434607591664928</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2843929379125203</v>
+        <v>0.01503284782456222</v>
       </c>
       <c r="D16">
         <f>(B16-C16)/B16</f>
@@ -11630,7 +11630,7 @@
         <v>0.8110742484136565</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2843929110149233</v>
+        <v>0.00419105407513218</v>
       </c>
       <c r="D17">
         <f>(B17-C17)/B17</f>
@@ -11647,7 +11647,7 @@
         <v>0.7069596618430213</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4086894694137034</v>
+        <v>0.03458551375137886</v>
       </c>
       <c r="D18">
         <f>(B18-C18)/B18</f>
@@ -11664,7 +11664,7 @@
         <v>0.3495407849821031</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1007736559899344</v>
+        <v>0.00211206463118908</v>
       </c>
       <c r="D19">
         <f>(B19-C19)/B19</f>
@@ -11681,7 +11681,7 @@
         <v>0.7206296637804197</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06341568606829287</v>
+        <v>3.034357094102027e-05</v>
       </c>
       <c r="D20">
         <f>(B20-C20)/B20</f>
@@ -11698,7 +11698,7 @@
         <v>0.2167441721533634</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2468883622691667</v>
+        <v>0.0177020890977593</v>
       </c>
       <c r="D21">
         <f>(B21-C21)/B21</f>
@@ -11715,7 +11715,7 @@
         <v>0.9851488844653659</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7695652131385819</v>
+        <v>0.9000002546482861</v>
       </c>
       <c r="D22">
         <f>(B22-C22)/B22</f>
@@ -11732,7 +11732,7 @@
         <v>0.9944981720414211</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4330146452754988</v>
+        <v>0.2298898440478568</v>
       </c>
       <c r="D23">
         <f>(B23-C23)/B23</f>
@@ -11749,7 +11749,7 @@
         <v>0.8566856505814413</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4330158079066306</v>
+        <v>0.2583499585106195</v>
       </c>
       <c r="D24">
         <f>(B24-C24)/B24</f>
@@ -11766,7 +11766,7 @@
         <v>0.9339896915781516</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3493050238212089</v>
+        <v>0.1747826671811203</v>
       </c>
       <c r="D25">
         <f>(B25-C25)/B25</f>
@@ -11783,7 +11783,7 @@
         <v>0.9274964159246326</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3107770023520831</v>
+        <v>0.2226978885588895</v>
       </c>
       <c r="D26">
         <f>(B26-C26)/B26</f>
@@ -11800,7 +11800,7 @@
         <v>0.9714948681968909</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3412612708612617</v>
+        <v>0.1827788481342695</v>
       </c>
       <c r="D27">
         <f>(B27-C27)/B27</f>
@@ -11817,7 +11817,7 @@
         <v>0.9940896058309361</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2901168216899745</v>
+        <v>0.1779914587157404</v>
       </c>
       <c r="D28">
         <f>(B28-C28)/B28</f>
@@ -11834,7 +11834,7 @@
         <v>0.8785756577926285</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3043704564348107</v>
+        <v>0.04889878998626204</v>
       </c>
       <c r="D29">
         <f>(B29-C29)/B29</f>
@@ -11851,7 +11851,7 @@
         <v>0.9637418006760948</v>
       </c>
       <c r="C30" t="n">
-        <v>0.416525623139851</v>
+        <v>0.1442166415905932</v>
       </c>
       <c r="D30">
         <f>(B30-C30)/B30</f>
@@ -11868,7 +11868,7 @@
         <v>0.9961816426525212</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3594180545205622</v>
+        <v>0.2434215849764926</v>
       </c>
       <c r="D31">
         <f>(B31-C31)/B31</f>
@@ -11885,7 +11885,7 @@
         <v>0.964443001161796</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4021182026639694</v>
+        <v>0.2190527543621555</v>
       </c>
       <c r="D32">
         <f>(B32-C32)/B32</f>
@@ -11902,7 +11902,7 @@
         <v>0.9991263049931265</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2326821470331391</v>
+        <v>0.2583500250428513</v>
       </c>
       <c r="D33">
         <f>(B33-C33)/B33</f>
@@ -11919,7 +11919,7 @@
         <v>0.9781822697517621</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3141410636023217</v>
+        <v>0.258350551527436</v>
       </c>
       <c r="D34">
         <f>(B34-C34)/B34</f>
@@ -11936,7 +11936,7 @@
         <v>0.9911648195199216</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4208103035326629</v>
+        <v>0.2417665505285693</v>
       </c>
       <c r="D35">
         <f>(B35-C35)/B35</f>
@@ -11953,7 +11953,7 @@
         <v>0.929739844364324</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2906204290965461</v>
+        <v>0.2231959418462669</v>
       </c>
       <c r="D36">
         <f>(B36-C36)/B36</f>
